--- a/Code/Results/Cases/Case_1_221/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_221/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9791588076675021</v>
+        <v>1.028117330279534</v>
       </c>
       <c r="D2">
-        <v>1.029694751244305</v>
+        <v>1.029094086837847</v>
       </c>
       <c r="E2">
-        <v>0.9966792235209891</v>
+        <v>1.037278728939197</v>
       </c>
       <c r="F2">
-        <v>1.004174102200605</v>
+        <v>1.046308381459464</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046668922014868</v>
+        <v>1.031046868218264</v>
       </c>
       <c r="J2">
-        <v>1.001981260184033</v>
+        <v>1.033271429457739</v>
       </c>
       <c r="K2">
-        <v>1.040755329551155</v>
+        <v>1.031908996946797</v>
       </c>
       <c r="L2">
-        <v>1.008185016729734</v>
+        <v>1.040070068345771</v>
       </c>
       <c r="M2">
-        <v>1.015575589848988</v>
+        <v>1.049074180890877</v>
       </c>
       <c r="N2">
-        <v>1.003404188502351</v>
+        <v>1.034738793405458</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9849744918002995</v>
+        <v>1.029335688008883</v>
       </c>
       <c r="D3">
-        <v>1.031486088134544</v>
+        <v>1.029461717418037</v>
       </c>
       <c r="E3">
-        <v>1.001592826291431</v>
+        <v>1.0383603432366</v>
       </c>
       <c r="F3">
-        <v>1.009488849026076</v>
+        <v>1.047474702360303</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047184209181113</v>
+        <v>1.031085851222385</v>
       </c>
       <c r="J3">
-        <v>1.005883320365029</v>
+        <v>1.034128881572542</v>
       </c>
       <c r="K3">
-        <v>1.041731345827096</v>
+        <v>1.032085888028109</v>
       </c>
       <c r="L3">
-        <v>1.012205367096829</v>
+        <v>1.04096073765349</v>
       </c>
       <c r="M3">
-        <v>1.02000174101619</v>
+        <v>1.050051196407676</v>
       </c>
       <c r="N3">
-        <v>1.007311790056376</v>
+        <v>1.035597463200616</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9886476907772249</v>
+        <v>1.030124201309196</v>
       </c>
       <c r="D4">
-        <v>1.032623534358996</v>
+        <v>1.029699380272863</v>
       </c>
       <c r="E4">
-        <v>1.004702547102872</v>
+        <v>1.03906056858344</v>
       </c>
       <c r="F4">
-        <v>1.012851017574332</v>
+        <v>1.048229547640932</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047498632305268</v>
+        <v>1.031109525754181</v>
       </c>
       <c r="J4">
-        <v>1.008346316213431</v>
+        <v>1.034683387065572</v>
       </c>
       <c r="K4">
-        <v>1.042343542131742</v>
+        <v>1.032199383715392</v>
       </c>
       <c r="L4">
-        <v>1.014744545933395</v>
+        <v>1.041536817977136</v>
       </c>
       <c r="M4">
-        <v>1.022796777432148</v>
+        <v>1.050682973457008</v>
       </c>
       <c r="N4">
-        <v>1.009778283641393</v>
+        <v>1.036152756155049</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9901713680323574</v>
+        <v>1.030455731153041</v>
       </c>
       <c r="D5">
-        <v>1.033096612342096</v>
+        <v>1.029799239420322</v>
       </c>
       <c r="E5">
-        <v>1.005993914955853</v>
+        <v>1.039355027619347</v>
       </c>
       <c r="F5">
-        <v>1.014246865623672</v>
+        <v>1.048546923167023</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047626322583119</v>
+        <v>1.031119106756078</v>
       </c>
       <c r="J5">
-        <v>1.009367566331125</v>
+        <v>1.03491642471103</v>
       </c>
       <c r="K5">
-        <v>1.042596338704102</v>
+        <v>1.032246865114289</v>
       </c>
       <c r="L5">
-        <v>1.015797734037436</v>
+        <v>1.041778944939222</v>
       </c>
       <c r="M5">
-        <v>1.023955964718501</v>
+        <v>1.05094847328602</v>
       </c>
       <c r="N5">
-        <v>1.010800984051393</v>
+        <v>1.036386124740693</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9904260236774669</v>
+        <v>1.030511398806059</v>
       </c>
       <c r="D6">
-        <v>1.033175747225818</v>
+        <v>1.029816002968292</v>
       </c>
       <c r="E6">
-        <v>1.006209825836899</v>
+        <v>1.039404473555316</v>
       </c>
       <c r="F6">
-        <v>1.014480224052834</v>
+        <v>1.048600214200099</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047647500414723</v>
+        <v>1.031120693627789</v>
       </c>
       <c r="J6">
-        <v>1.0095382238517</v>
+        <v>1.034955548300859</v>
       </c>
       <c r="K6">
-        <v>1.042638518062555</v>
+        <v>1.032254823798151</v>
       </c>
       <c r="L6">
-        <v>1.015973748756937</v>
+        <v>1.041819595790102</v>
       </c>
       <c r="M6">
-        <v>1.024149686781158</v>
+        <v>1.050993046075255</v>
       </c>
       <c r="N6">
-        <v>1.010971883925223</v>
+        <v>1.036425303890507</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9886681296486416</v>
+        <v>1.030128631072166</v>
       </c>
       <c r="D7">
-        <v>1.032629875599145</v>
+        <v>1.029700714811595</v>
       </c>
       <c r="E7">
-        <v>1.004719864198367</v>
+        <v>1.039064502827195</v>
       </c>
       <c r="F7">
-        <v>1.012869737147008</v>
+        <v>1.048233788275682</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047500356092281</v>
+        <v>1.031109655237663</v>
       </c>
       <c r="J7">
-        <v>1.008360017179578</v>
+        <v>1.034686501225271</v>
       </c>
       <c r="K7">
-        <v>1.042346937891691</v>
+        <v>1.032200019078088</v>
       </c>
       <c r="L7">
-        <v>1.014758674011627</v>
+        <v>1.041540053513255</v>
       </c>
       <c r="M7">
-        <v>1.022812327960387</v>
+        <v>1.050686521467867</v>
       </c>
       <c r="N7">
-        <v>1.009792004064483</v>
+        <v>1.036155874737211</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9811434880472336</v>
+        <v>1.028529049151892</v>
       </c>
       <c r="D8">
-        <v>1.030304680002301</v>
+        <v>1.029218373427148</v>
       </c>
       <c r="E8">
-        <v>0.9983546864105305</v>
+        <v>1.037644193893993</v>
       </c>
       <c r="F8">
-        <v>1.005986642243899</v>
+        <v>1.046702512918739</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046847035164763</v>
+        <v>1.031060363253687</v>
       </c>
       <c r="J8">
-        <v>1.003313185480355</v>
+        <v>1.033561276940233</v>
       </c>
       <c r="K8">
-        <v>1.041089224263114</v>
+        <v>1.031968977111784</v>
       </c>
       <c r="L8">
-        <v>1.009556990735461</v>
+        <v>1.040371124852199</v>
       </c>
       <c r="M8">
-        <v>1.017086126735617</v>
+        <v>1.049404454669048</v>
       </c>
       <c r="N8">
-        <v>1.004738005285368</v>
+        <v>1.035029052504624</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.967146909102588</v>
+        <v>1.025711478988682</v>
       </c>
       <c r="D9">
-        <v>1.026037460969812</v>
+        <v>1.028366837238586</v>
       </c>
       <c r="E9">
-        <v>0.9865692010982315</v>
+        <v>1.035144059201943</v>
       </c>
       <c r="F9">
-        <v>0.9932313106878216</v>
+        <v>1.044005380268634</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045547539947326</v>
+        <v>1.030961662574238</v>
       </c>
       <c r="J9">
-        <v>0.9939156271441434</v>
+        <v>1.031575968642434</v>
       </c>
       <c r="K9">
-        <v>1.038721765371808</v>
+        <v>1.031554518101667</v>
       </c>
       <c r="L9">
-        <v>0.9998840081986371</v>
+        <v>1.038309431699046</v>
       </c>
       <c r="M9">
-        <v>1.006435168122798</v>
+        <v>1.047142062722855</v>
       </c>
       <c r="N9">
-        <v>0.9953271013384039</v>
+        <v>1.033040924841324</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9572462487069803</v>
+        <v>1.02383371633209</v>
       </c>
       <c r="D10">
-        <v>1.023072448184091</v>
+        <v>1.027798194150698</v>
       </c>
       <c r="E10">
-        <v>0.9782756801626452</v>
+        <v>1.03347901531746</v>
       </c>
       <c r="F10">
-        <v>0.9842486842451647</v>
+        <v>1.042208023366235</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044577357079741</v>
+        <v>1.030887940287749</v>
       </c>
       <c r="J10">
-        <v>0.9872651954393291</v>
+        <v>1.030250674100194</v>
       </c>
       <c r="K10">
-        <v>1.037037254259118</v>
+        <v>1.031273355053899</v>
       </c>
       <c r="L10">
-        <v>0.9930485736801324</v>
+        <v>1.036933645319921</v>
       </c>
       <c r="M10">
-        <v>0.9989082790198132</v>
+        <v>1.04563158705792</v>
       </c>
       <c r="N10">
-        <v>0.9886672252577539</v>
+        <v>1.03171374822882</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9528054439864785</v>
+        <v>1.02302074340784</v>
       </c>
       <c r="D11">
-        <v>1.021758601456717</v>
+        <v>1.027551764079307</v>
       </c>
       <c r="E11">
-        <v>0.9745674881558981</v>
+        <v>1.032758425765578</v>
       </c>
       <c r="F11">
-        <v>0.9802309960857476</v>
+        <v>1.041429908268601</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044131578247727</v>
+        <v>1.030854147116114</v>
       </c>
       <c r="J11">
-        <v>0.9842824701472136</v>
+        <v>1.029676376118096</v>
       </c>
       <c r="K11">
-        <v>1.036281525922188</v>
+        <v>1.031150471825462</v>
       </c>
       <c r="L11">
-        <v>0.9899855082598182</v>
+        <v>1.036337588121981</v>
       </c>
       <c r="M11">
-        <v>0.995535611229977</v>
+        <v>1.044976998286283</v>
       </c>
       <c r="N11">
-        <v>0.9856802641536001</v>
+        <v>1.031138634677715</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9511310609060067</v>
+        <v>1.022718783252297</v>
       </c>
       <c r="D12">
-        <v>1.021265941602538</v>
+        <v>1.027460200341883</v>
       </c>
       <c r="E12">
-        <v>0.9731712402339827</v>
+        <v>1.032490823383385</v>
       </c>
       <c r="F12">
-        <v>0.9787180226731353</v>
+        <v>1.041140903307517</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043962038230637</v>
+        <v>1.030841314388672</v>
       </c>
       <c r="J12">
-        <v>0.9831579702393022</v>
+        <v>1.029462989345189</v>
       </c>
       <c r="K12">
-        <v>1.035996754073776</v>
+        <v>1.031104657827524</v>
       </c>
       <c r="L12">
-        <v>0.9888311417908369</v>
+        <v>1.036116134809038</v>
       </c>
       <c r="M12">
-        <v>0.9942646342226085</v>
+        <v>1.044733772266124</v>
       </c>
       <c r="N12">
-        <v>0.9845541673268376</v>
+        <v>1.030924944871114</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9514913775767576</v>
+        <v>1.022783554128012</v>
       </c>
       <c r="D13">
-        <v>1.021371831004322</v>
+        <v>1.02747984233842</v>
       </c>
       <c r="E13">
-        <v>0.9734716154545715</v>
+        <v>1.032548222458748</v>
       </c>
       <c r="F13">
-        <v>0.9790435174062146</v>
+        <v>1.041202894893944</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043998585938669</v>
+        <v>1.030844079732356</v>
       </c>
       <c r="J13">
-        <v>0.983399948568454</v>
+        <v>1.029508764582398</v>
       </c>
       <c r="K13">
-        <v>1.036058024154648</v>
+        <v>1.031114492744828</v>
       </c>
       <c r="L13">
-        <v>0.9890795275279611</v>
+        <v>1.03616363962878</v>
       </c>
       <c r="M13">
-        <v>0.9945381075247621</v>
+        <v>1.04478594882802</v>
       </c>
       <c r="N13">
-        <v>0.984796489292972</v>
+        <v>1.030970785114411</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9526675571770979</v>
+        <v>1.022995783011939</v>
       </c>
       <c r="D14">
-        <v>1.021717973483965</v>
+        <v>1.027544195964923</v>
       </c>
       <c r="E14">
-        <v>0.9744524664249805</v>
+        <v>1.032736304520526</v>
       </c>
       <c r="F14">
-        <v>0.9801063623770504</v>
+        <v>1.041406018594324</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044117645363829</v>
+        <v>1.030853092075995</v>
       </c>
       <c r="J14">
-        <v>0.9841898636729514</v>
+        <v>1.029658738873926</v>
       </c>
       <c r="K14">
-        <v>1.036258070072891</v>
+        <v>1.031146688280687</v>
       </c>
       <c r="L14">
-        <v>0.9898904334428245</v>
+        <v>1.0363192837718</v>
       </c>
       <c r="M14">
-        <v>0.995430930679126</v>
+        <v>1.044956894838777</v>
       </c>
       <c r="N14">
-        <v>0.9855875261675221</v>
+        <v>1.031120972386636</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9533888887030794</v>
+        <v>1.023126546038408</v>
       </c>
       <c r="D15">
-        <v>1.021930624408495</v>
+        <v>1.027583842622838</v>
       </c>
       <c r="E15">
-        <v>0.9750542616648423</v>
+        <v>1.032852195557168</v>
       </c>
       <c r="F15">
-        <v>0.9807584399521803</v>
+        <v>1.041531172639025</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04419047421847</v>
+        <v>1.030858607736802</v>
       </c>
       <c r="J15">
-        <v>0.9846743242664849</v>
+        <v>1.02975113407601</v>
       </c>
       <c r="K15">
-        <v>1.036380783567292</v>
+        <v>1.031166502563614</v>
       </c>
       <c r="L15">
-        <v>0.9903878242409363</v>
+        <v>1.036415174455283</v>
       </c>
       <c r="M15">
-        <v>0.9959785775349881</v>
+        <v>1.045062209340555</v>
       </c>
       <c r="N15">
-        <v>0.9860726747506668</v>
+        <v>1.031213498800504</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9575375836887038</v>
+        <v>1.023887672791227</v>
       </c>
       <c r="D16">
-        <v>1.023159000994068</v>
+        <v>1.027814544778102</v>
       </c>
       <c r="E16">
-        <v>0.9785192085255772</v>
+        <v>1.033526846487262</v>
       </c>
       <c r="F16">
-        <v>0.984512510811985</v>
+        <v>1.042259667404828</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044606392566131</v>
+        <v>1.030890143666203</v>
       </c>
       <c r="J16">
-        <v>0.9874608864334087</v>
+        <v>1.030288779052265</v>
       </c>
       <c r="K16">
-        <v>1.037086846012989</v>
+        <v>1.031281486543706</v>
       </c>
       <c r="L16">
-        <v>0.9932495925171232</v>
+        <v>1.036973196566424</v>
       </c>
       <c r="M16">
-        <v>0.9991296237577608</v>
+        <v>1.045675018432354</v>
       </c>
       <c r="N16">
-        <v>0.9888631941554907</v>
+        <v>1.031751907294294</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9600975899911387</v>
+        <v>1.024365135405186</v>
       </c>
       <c r="D17">
-        <v>1.023921411371796</v>
+        <v>1.027959204975412</v>
       </c>
       <c r="E17">
-        <v>0.9806604790090296</v>
+        <v>1.033950139505025</v>
       </c>
       <c r="F17">
-        <v>0.9868321019878868</v>
+        <v>1.042716672818436</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044860343724212</v>
+        <v>1.030909424877651</v>
       </c>
       <c r="J17">
-        <v>0.9891804903079797</v>
+        <v>1.030625911691083</v>
       </c>
       <c r="K17">
-        <v>1.037522620699498</v>
+        <v>1.031353309221757</v>
       </c>
       <c r="L17">
-        <v>0.9950163155825095</v>
+        <v>1.037323139225624</v>
       </c>
       <c r="M17">
-        <v>1.001075019777956</v>
+        <v>1.046059271311329</v>
       </c>
       <c r="N17">
-        <v>0.9905852400648049</v>
+        <v>1.032089518700128</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9615760918879805</v>
+        <v>1.024643642116899</v>
       </c>
       <c r="D18">
-        <v>1.024363229777286</v>
+        <v>1.02804356301878</v>
       </c>
       <c r="E18">
-        <v>0.9818982452886033</v>
+        <v>1.034197076435427</v>
       </c>
       <c r="F18">
-        <v>0.9881728147804362</v>
+        <v>1.04298325112517</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045005998252629</v>
+        <v>1.030920490720905</v>
       </c>
       <c r="J18">
-        <v>0.9901736436842882</v>
+        <v>1.030822513410697</v>
       </c>
       <c r="K18">
-        <v>1.037774268431435</v>
+        <v>1.031395092313457</v>
       </c>
       <c r="L18">
-        <v>0.9960369295418876</v>
+        <v>1.037527222844882</v>
       </c>
       <c r="M18">
-        <v>1.002198872331347</v>
+        <v>1.046283347210572</v>
       </c>
       <c r="N18">
-        <v>0.9915798038328237</v>
+        <v>1.032286399616735</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9620777793151235</v>
+        <v>1.024738607621658</v>
       </c>
       <c r="D19">
-        <v>1.024513393421401</v>
+        <v>1.028072323511874</v>
       </c>
       <c r="E19">
-        <v>0.9823184285894572</v>
+        <v>1.034281281906872</v>
       </c>
       <c r="F19">
-        <v>0.9886279223213439</v>
+        <v>1.043074149983076</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04505524644595</v>
+        <v>1.030924233241339</v>
       </c>
       <c r="J19">
-        <v>0.9905106422177865</v>
+        <v>1.030889542424505</v>
       </c>
       <c r="K19">
-        <v>1.037859647357678</v>
+        <v>1.031409320595589</v>
       </c>
       <c r="L19">
-        <v>0.996383287199884</v>
+        <v>1.037596804689626</v>
       </c>
       <c r="M19">
-        <v>1.002580268009816</v>
+        <v>1.046359742461098</v>
       </c>
       <c r="N19">
-        <v>0.9919172809428943</v>
+        <v>1.032353523819431</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9598244589414462</v>
+        <v>1.024313907082279</v>
       </c>
       <c r="D20">
-        <v>1.023839911065895</v>
+        <v>1.027943686339297</v>
       </c>
       <c r="E20">
-        <v>0.9804319083133716</v>
+        <v>1.033904720324707</v>
       </c>
       <c r="F20">
-        <v>0.9865845099852166</v>
+        <v>1.04266763894386</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044833353432631</v>
+        <v>1.030907374857855</v>
       </c>
       <c r="J20">
-        <v>0.9889970208310801</v>
+        <v>1.030589744908832</v>
       </c>
       <c r="K20">
-        <v>1.037476128861334</v>
+        <v>1.031345614682738</v>
       </c>
       <c r="L20">
-        <v>0.994827792998308</v>
+        <v>1.037285597010637</v>
       </c>
       <c r="M20">
-        <v>1.000867429012818</v>
+        <v>1.046018050032535</v>
       </c>
       <c r="N20">
-        <v>0.9904015100402042</v>
+        <v>1.032053300556898</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9523219032573746</v>
+        <v>1.022933286523324</v>
       </c>
       <c r="D21">
-        <v>1.021616172337129</v>
+        <v>1.027525246200477</v>
       </c>
       <c r="E21">
-        <v>0.9741641617610444</v>
+        <v>1.032680917487039</v>
       </c>
       <c r="F21">
-        <v>0.9797939620558893</v>
+        <v>1.041346203140201</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044082695431799</v>
+        <v>1.03085044590172</v>
       </c>
       <c r="J21">
-        <v>0.9839577205204882</v>
+        <v>1.029614577041358</v>
       </c>
       <c r="K21">
-        <v>1.036199274525931</v>
+        <v>1.031137212172323</v>
       </c>
       <c r="L21">
-        <v>0.9896521096081317</v>
+        <v>1.036273451871767</v>
       </c>
       <c r="M21">
-        <v>0.9951685293785502</v>
+        <v>1.044906557788065</v>
       </c>
       <c r="N21">
-        <v>0.9853550533451553</v>
+        <v>1.0310767478392</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9474598449327593</v>
+        <v>1.022065316446286</v>
       </c>
       <c r="D22">
-        <v>1.020191107058158</v>
+        <v>1.027261991570284</v>
       </c>
       <c r="E22">
-        <v>0.9701135363171963</v>
+        <v>1.031911791277803</v>
       </c>
       <c r="F22">
-        <v>0.975404365709949</v>
+        <v>1.040515488535969</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043587771638827</v>
+        <v>1.030813030192729</v>
       </c>
       <c r="J22">
-        <v>0.9806927418220025</v>
+        <v>1.029001062395929</v>
       </c>
       <c r="K22">
-        <v>1.035372912475494</v>
+        <v>1.031005200045155</v>
       </c>
       <c r="L22">
-        <v>0.9863012453794527</v>
+        <v>1.035636779652114</v>
       </c>
       <c r="M22">
-        <v>0.9914793368823352</v>
+        <v>1.04420724005106</v>
       </c>
       <c r="N22">
-        <v>0.9820854380024194</v>
+        <v>1.030462361932603</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9500516881633452</v>
+        <v>1.02252543695867</v>
       </c>
       <c r="D23">
-        <v>1.020949159928269</v>
+        <v>1.027401562781779</v>
       </c>
       <c r="E23">
-        <v>0.9722717205043215</v>
+        <v>1.032319489035313</v>
       </c>
       <c r="F23">
-        <v>0.9777432521529048</v>
+        <v>1.040955854679544</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043852351614525</v>
+        <v>1.030833018519857</v>
       </c>
       <c r="J23">
-        <v>0.982433119362767</v>
+        <v>1.029326335328669</v>
       </c>
       <c r="K23">
-        <v>1.035813252919895</v>
+        <v>1.031075274765231</v>
       </c>
       <c r="L23">
-        <v>0.9880871613924295</v>
+        <v>1.03597432012485</v>
       </c>
       <c r="M23">
-        <v>0.9934455224670304</v>
+        <v>1.044578007317738</v>
       </c>
       <c r="N23">
-        <v>0.9838282870789162</v>
+        <v>1.030788096790216</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.959947920422472</v>
+        <v>1.024337054922801</v>
       </c>
       <c r="D24">
-        <v>1.023876746445055</v>
+        <v>1.027950698604475</v>
       </c>
       <c r="E24">
-        <v>0.9805352240911241</v>
+        <v>1.033925243182189</v>
       </c>
       <c r="F24">
-        <v>0.9866964239567506</v>
+        <v>1.042689795195606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044845556812159</v>
+        <v>1.030908301731581</v>
       </c>
       <c r="J24">
-        <v>0.9890799531869964</v>
+        <v>1.030606087250922</v>
       </c>
       <c r="K24">
-        <v>1.03749714433978</v>
+        <v>1.031349091853373</v>
       </c>
       <c r="L24">
-        <v>0.9949130087085694</v>
+        <v>1.037302560820606</v>
       </c>
       <c r="M24">
-        <v>1.000961263830842</v>
+        <v>1.046036676315802</v>
       </c>
       <c r="N24">
-        <v>0.9904845601695783</v>
+        <v>1.032069666106989</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9708599368022434</v>
+        <v>1.026439770752477</v>
       </c>
       <c r="D25">
-        <v>1.027161364094088</v>
+        <v>1.028587156053423</v>
       </c>
       <c r="E25">
-        <v>0.989688748751642</v>
+        <v>1.035790097948365</v>
       </c>
       <c r="F25">
-        <v>0.9966087657223813</v>
+        <v>1.044702520712501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045901467557816</v>
+        <v>1.030988578257579</v>
       </c>
       <c r="J25">
-        <v>0.996409413324721</v>
+        <v>1.032089523338502</v>
       </c>
       <c r="K25">
-        <v>1.039352174827982</v>
+        <v>1.031662527136736</v>
       </c>
       <c r="L25">
-        <v>1.002449270755232</v>
+        <v>1.038842658351631</v>
       </c>
       <c r="M25">
-        <v>1.009259955341091</v>
+        <v>1.047727332251492</v>
       </c>
       <c r="N25">
-        <v>0.997824428981399</v>
+        <v>1.033555208843966</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_221/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_221/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028117330279534</v>
+        <v>0.9791588076675022</v>
       </c>
       <c r="D2">
-        <v>1.029094086837847</v>
+        <v>1.029694751244305</v>
       </c>
       <c r="E2">
-        <v>1.037278728939197</v>
+        <v>0.9966792235209893</v>
       </c>
       <c r="F2">
-        <v>1.046308381459464</v>
+        <v>1.004174102200606</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031046868218264</v>
+        <v>1.046668922014868</v>
       </c>
       <c r="J2">
-        <v>1.033271429457739</v>
+        <v>1.001981260184033</v>
       </c>
       <c r="K2">
-        <v>1.031908996946797</v>
+        <v>1.040755329551155</v>
       </c>
       <c r="L2">
-        <v>1.040070068345771</v>
+        <v>1.008185016729734</v>
       </c>
       <c r="M2">
-        <v>1.049074180890877</v>
+        <v>1.015575589848988</v>
       </c>
       <c r="N2">
-        <v>1.034738793405458</v>
+        <v>1.003404188502351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029335688008883</v>
+        <v>0.9849744918002994</v>
       </c>
       <c r="D3">
-        <v>1.029461717418037</v>
+        <v>1.031486088134544</v>
       </c>
       <c r="E3">
-        <v>1.0383603432366</v>
+        <v>1.001592826291431</v>
       </c>
       <c r="F3">
-        <v>1.047474702360303</v>
+        <v>1.009488849026076</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031085851222385</v>
+        <v>1.047184209181113</v>
       </c>
       <c r="J3">
-        <v>1.034128881572542</v>
+        <v>1.005883320365029</v>
       </c>
       <c r="K3">
-        <v>1.032085888028109</v>
+        <v>1.041731345827097</v>
       </c>
       <c r="L3">
-        <v>1.04096073765349</v>
+        <v>1.012205367096829</v>
       </c>
       <c r="M3">
-        <v>1.050051196407676</v>
+        <v>1.02000174101619</v>
       </c>
       <c r="N3">
-        <v>1.035597463200616</v>
+        <v>1.007311790056376</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030124201309196</v>
+        <v>0.988647690777225</v>
       </c>
       <c r="D4">
-        <v>1.029699380272863</v>
+        <v>1.032623534358996</v>
       </c>
       <c r="E4">
-        <v>1.03906056858344</v>
+        <v>1.004702547102872</v>
       </c>
       <c r="F4">
-        <v>1.048229547640932</v>
+        <v>1.012851017574332</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031109525754181</v>
+        <v>1.047498632305268</v>
       </c>
       <c r="J4">
-        <v>1.034683387065572</v>
+        <v>1.008346316213431</v>
       </c>
       <c r="K4">
-        <v>1.032199383715392</v>
+        <v>1.042343542131742</v>
       </c>
       <c r="L4">
-        <v>1.041536817977136</v>
+        <v>1.014744545933395</v>
       </c>
       <c r="M4">
-        <v>1.050682973457008</v>
+        <v>1.022796777432148</v>
       </c>
       <c r="N4">
-        <v>1.036152756155049</v>
+        <v>1.009778283641393</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030455731153041</v>
+        <v>0.9901713680323577</v>
       </c>
       <c r="D5">
-        <v>1.029799239420322</v>
+        <v>1.033096612342096</v>
       </c>
       <c r="E5">
-        <v>1.039355027619347</v>
+        <v>1.005993914955853</v>
       </c>
       <c r="F5">
-        <v>1.048546923167023</v>
+        <v>1.014246865623672</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031119106756078</v>
+        <v>1.047626322583119</v>
       </c>
       <c r="J5">
-        <v>1.03491642471103</v>
+        <v>1.009367566331125</v>
       </c>
       <c r="K5">
-        <v>1.032246865114289</v>
+        <v>1.042596338704102</v>
       </c>
       <c r="L5">
-        <v>1.041778944939222</v>
+        <v>1.015797734037437</v>
       </c>
       <c r="M5">
-        <v>1.05094847328602</v>
+        <v>1.023955964718502</v>
       </c>
       <c r="N5">
-        <v>1.036386124740693</v>
+        <v>1.010800984051393</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030511398806059</v>
+        <v>0.990426023677467</v>
       </c>
       <c r="D6">
-        <v>1.029816002968292</v>
+        <v>1.033175747225818</v>
       </c>
       <c r="E6">
-        <v>1.039404473555316</v>
+        <v>1.006209825836899</v>
       </c>
       <c r="F6">
-        <v>1.048600214200099</v>
+        <v>1.014480224052833</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031120693627789</v>
+        <v>1.047647500414722</v>
       </c>
       <c r="J6">
-        <v>1.034955548300859</v>
+        <v>1.009538223851701</v>
       </c>
       <c r="K6">
-        <v>1.032254823798151</v>
+        <v>1.042638518062555</v>
       </c>
       <c r="L6">
-        <v>1.041819595790102</v>
+        <v>1.015973748756937</v>
       </c>
       <c r="M6">
-        <v>1.050993046075255</v>
+        <v>1.024149686781158</v>
       </c>
       <c r="N6">
-        <v>1.036425303890507</v>
+        <v>1.010971883925223</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030128631072166</v>
+        <v>0.9886681296486423</v>
       </c>
       <c r="D7">
-        <v>1.029700714811595</v>
+        <v>1.032629875599145</v>
       </c>
       <c r="E7">
-        <v>1.039064502827195</v>
+        <v>1.004719864198367</v>
       </c>
       <c r="F7">
-        <v>1.048233788275682</v>
+        <v>1.012869737147009</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031109655237663</v>
+        <v>1.047500356092281</v>
       </c>
       <c r="J7">
-        <v>1.034686501225271</v>
+        <v>1.008360017179578</v>
       </c>
       <c r="K7">
-        <v>1.032200019078088</v>
+        <v>1.042346937891691</v>
       </c>
       <c r="L7">
-        <v>1.041540053513255</v>
+        <v>1.014758674011628</v>
       </c>
       <c r="M7">
-        <v>1.050686521467867</v>
+        <v>1.022812327960388</v>
       </c>
       <c r="N7">
-        <v>1.036155874737211</v>
+        <v>1.009792004064484</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028529049151892</v>
+        <v>0.9811434880472336</v>
       </c>
       <c r="D8">
-        <v>1.029218373427148</v>
+        <v>1.030304680002301</v>
       </c>
       <c r="E8">
-        <v>1.037644193893993</v>
+        <v>0.9983546864105304</v>
       </c>
       <c r="F8">
-        <v>1.046702512918739</v>
+        <v>1.005986642243899</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031060363253687</v>
+        <v>1.046847035164763</v>
       </c>
       <c r="J8">
-        <v>1.033561276940233</v>
+        <v>1.003313185480355</v>
       </c>
       <c r="K8">
-        <v>1.031968977111784</v>
+        <v>1.041089224263114</v>
       </c>
       <c r="L8">
-        <v>1.040371124852199</v>
+        <v>1.009556990735461</v>
       </c>
       <c r="M8">
-        <v>1.049404454669048</v>
+        <v>1.017086126735617</v>
       </c>
       <c r="N8">
-        <v>1.035029052504624</v>
+        <v>1.004738005285368</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025711478988682</v>
+        <v>0.9671469091025888</v>
       </c>
       <c r="D9">
-        <v>1.028366837238586</v>
+        <v>1.026037460969812</v>
       </c>
       <c r="E9">
-        <v>1.035144059201943</v>
+        <v>0.9865692010982319</v>
       </c>
       <c r="F9">
-        <v>1.044005380268634</v>
+        <v>0.9932313106878218</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030961662574238</v>
+        <v>1.045547539947326</v>
       </c>
       <c r="J9">
-        <v>1.031575968642434</v>
+        <v>0.9939156271441441</v>
       </c>
       <c r="K9">
-        <v>1.031554518101667</v>
+        <v>1.038721765371809</v>
       </c>
       <c r="L9">
-        <v>1.038309431699046</v>
+        <v>0.9998840081986375</v>
       </c>
       <c r="M9">
-        <v>1.047142062722855</v>
+        <v>1.006435168122799</v>
       </c>
       <c r="N9">
-        <v>1.033040924841324</v>
+        <v>0.9953271013384044</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02383371633209</v>
+        <v>0.9572462487069803</v>
       </c>
       <c r="D10">
-        <v>1.027798194150698</v>
+        <v>1.023072448184091</v>
       </c>
       <c r="E10">
-        <v>1.03347901531746</v>
+        <v>0.9782756801626449</v>
       </c>
       <c r="F10">
-        <v>1.042208023366235</v>
+        <v>0.9842486842451642</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030887940287749</v>
+        <v>1.044577357079741</v>
       </c>
       <c r="J10">
-        <v>1.030250674100194</v>
+        <v>0.987265195439329</v>
       </c>
       <c r="K10">
-        <v>1.031273355053899</v>
+        <v>1.037037254259118</v>
       </c>
       <c r="L10">
-        <v>1.036933645319921</v>
+        <v>0.9930485736801321</v>
       </c>
       <c r="M10">
-        <v>1.04563158705792</v>
+        <v>0.9989082790198127</v>
       </c>
       <c r="N10">
-        <v>1.03171374822882</v>
+        <v>0.9886672252577536</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02302074340784</v>
+        <v>0.9528054439864786</v>
       </c>
       <c r="D11">
-        <v>1.027551764079307</v>
+        <v>1.021758601456717</v>
       </c>
       <c r="E11">
-        <v>1.032758425765578</v>
+        <v>0.9745674881558987</v>
       </c>
       <c r="F11">
-        <v>1.041429908268601</v>
+        <v>0.9802309960857477</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030854147116114</v>
+        <v>1.044131578247727</v>
       </c>
       <c r="J11">
-        <v>1.029676376118096</v>
+        <v>0.9842824701472138</v>
       </c>
       <c r="K11">
-        <v>1.031150471825462</v>
+        <v>1.036281525922188</v>
       </c>
       <c r="L11">
-        <v>1.036337588121981</v>
+        <v>0.9899855082598183</v>
       </c>
       <c r="M11">
-        <v>1.044976998286283</v>
+        <v>0.9955356112299771</v>
       </c>
       <c r="N11">
-        <v>1.031138634677715</v>
+        <v>0.9856802641536004</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022718783252297</v>
+        <v>0.9511310609060061</v>
       </c>
       <c r="D12">
-        <v>1.027460200341883</v>
+        <v>1.021265941602538</v>
       </c>
       <c r="E12">
-        <v>1.032490823383385</v>
+        <v>0.9731712402339822</v>
       </c>
       <c r="F12">
-        <v>1.041140903307517</v>
+        <v>0.9787180226731349</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030841314388672</v>
+        <v>1.043962038230637</v>
       </c>
       <c r="J12">
-        <v>1.029462989345189</v>
+        <v>0.9831579702393016</v>
       </c>
       <c r="K12">
-        <v>1.031104657827524</v>
+        <v>1.035996754073776</v>
       </c>
       <c r="L12">
-        <v>1.036116134809038</v>
+        <v>0.9888311417908363</v>
       </c>
       <c r="M12">
-        <v>1.044733772266124</v>
+        <v>0.9942646342226079</v>
       </c>
       <c r="N12">
-        <v>1.030924944871114</v>
+        <v>0.9845541673268369</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022783554128012</v>
+        <v>0.9514913775767579</v>
       </c>
       <c r="D13">
-        <v>1.02747984233842</v>
+        <v>1.021371831004322</v>
       </c>
       <c r="E13">
-        <v>1.032548222458748</v>
+        <v>0.9734716154545716</v>
       </c>
       <c r="F13">
-        <v>1.041202894893944</v>
+        <v>0.9790435174062144</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030844079732356</v>
+        <v>1.043998585938669</v>
       </c>
       <c r="J13">
-        <v>1.029508764582398</v>
+        <v>0.9833999485684545</v>
       </c>
       <c r="K13">
-        <v>1.031114492744828</v>
+        <v>1.036058024154648</v>
       </c>
       <c r="L13">
-        <v>1.03616363962878</v>
+        <v>0.9890795275279614</v>
       </c>
       <c r="M13">
-        <v>1.04478594882802</v>
+        <v>0.994538107524762</v>
       </c>
       <c r="N13">
-        <v>1.030970785114411</v>
+        <v>0.9847964892929724</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022995783011939</v>
+        <v>0.9526675571770973</v>
       </c>
       <c r="D14">
-        <v>1.027544195964923</v>
+        <v>1.021717973483965</v>
       </c>
       <c r="E14">
-        <v>1.032736304520526</v>
+        <v>0.9744524664249796</v>
       </c>
       <c r="F14">
-        <v>1.041406018594324</v>
+        <v>0.9801063623770498</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030853092075995</v>
+        <v>1.044117645363829</v>
       </c>
       <c r="J14">
-        <v>1.029658738873926</v>
+        <v>0.9841898636729508</v>
       </c>
       <c r="K14">
-        <v>1.031146688280687</v>
+        <v>1.036258070072891</v>
       </c>
       <c r="L14">
-        <v>1.0363192837718</v>
+        <v>0.9898904334428238</v>
       </c>
       <c r="M14">
-        <v>1.044956894838777</v>
+        <v>0.9954309306791255</v>
       </c>
       <c r="N14">
-        <v>1.031120972386636</v>
+        <v>0.9855875261675217</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023126546038408</v>
+        <v>0.9533888887030786</v>
       </c>
       <c r="D15">
-        <v>1.027583842622838</v>
+        <v>1.021930624408495</v>
       </c>
       <c r="E15">
-        <v>1.032852195557168</v>
+        <v>0.9750542616648415</v>
       </c>
       <c r="F15">
-        <v>1.041531172639025</v>
+        <v>0.9807584399521795</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030858607736802</v>
+        <v>1.04419047421847</v>
       </c>
       <c r="J15">
-        <v>1.02975113407601</v>
+        <v>0.9846743242664844</v>
       </c>
       <c r="K15">
-        <v>1.031166502563614</v>
+        <v>1.036380783567292</v>
       </c>
       <c r="L15">
-        <v>1.036415174455283</v>
+        <v>0.9903878242409357</v>
       </c>
       <c r="M15">
-        <v>1.045062209340555</v>
+        <v>0.9959785775349874</v>
       </c>
       <c r="N15">
-        <v>1.031213498800504</v>
+        <v>0.9860726747506664</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023887672791227</v>
+        <v>0.9575375836887035</v>
       </c>
       <c r="D16">
-        <v>1.027814544778102</v>
+        <v>1.023159000994068</v>
       </c>
       <c r="E16">
-        <v>1.033526846487262</v>
+        <v>0.9785192085255769</v>
       </c>
       <c r="F16">
-        <v>1.042259667404828</v>
+        <v>0.9845125108119848</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030890143666203</v>
+        <v>1.044606392566131</v>
       </c>
       <c r="J16">
-        <v>1.030288779052265</v>
+        <v>0.9874608864334085</v>
       </c>
       <c r="K16">
-        <v>1.031281486543706</v>
+        <v>1.037086846012989</v>
       </c>
       <c r="L16">
-        <v>1.036973196566424</v>
+        <v>0.993249592517123</v>
       </c>
       <c r="M16">
-        <v>1.045675018432354</v>
+        <v>0.9991296237577605</v>
       </c>
       <c r="N16">
-        <v>1.031751907294294</v>
+        <v>0.9888631941554905</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024365135405186</v>
+        <v>0.9600975899911391</v>
       </c>
       <c r="D17">
-        <v>1.027959204975412</v>
+        <v>1.023921411371796</v>
       </c>
       <c r="E17">
-        <v>1.033950139505025</v>
+        <v>0.9806604790090301</v>
       </c>
       <c r="F17">
-        <v>1.042716672818436</v>
+        <v>0.9868321019878871</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030909424877651</v>
+        <v>1.044860343724212</v>
       </c>
       <c r="J17">
-        <v>1.030625911691083</v>
+        <v>0.9891804903079803</v>
       </c>
       <c r="K17">
-        <v>1.031353309221757</v>
+        <v>1.037522620699498</v>
       </c>
       <c r="L17">
-        <v>1.037323139225624</v>
+        <v>0.9950163155825097</v>
       </c>
       <c r="M17">
-        <v>1.046059271311329</v>
+        <v>1.001075019777957</v>
       </c>
       <c r="N17">
-        <v>1.032089518700128</v>
+        <v>0.9905852400648056</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024643642116899</v>
+        <v>0.9615760918879805</v>
       </c>
       <c r="D18">
-        <v>1.02804356301878</v>
+        <v>1.024363229777286</v>
       </c>
       <c r="E18">
-        <v>1.034197076435427</v>
+        <v>0.9818982452886033</v>
       </c>
       <c r="F18">
-        <v>1.04298325112517</v>
+        <v>0.9881728147804359</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030920490720905</v>
+        <v>1.045005998252629</v>
       </c>
       <c r="J18">
-        <v>1.030822513410697</v>
+        <v>0.9901736436842882</v>
       </c>
       <c r="K18">
-        <v>1.031395092313457</v>
+        <v>1.037774268431435</v>
       </c>
       <c r="L18">
-        <v>1.037527222844882</v>
+        <v>0.9960369295418874</v>
       </c>
       <c r="M18">
-        <v>1.046283347210572</v>
+        <v>1.002198872331347</v>
       </c>
       <c r="N18">
-        <v>1.032286399616735</v>
+        <v>0.9915798038328244</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024738607621658</v>
+        <v>0.9620777793151235</v>
       </c>
       <c r="D19">
-        <v>1.028072323511874</v>
+        <v>1.024513393421401</v>
       </c>
       <c r="E19">
-        <v>1.034281281906872</v>
+        <v>0.9823184285894572</v>
       </c>
       <c r="F19">
-        <v>1.043074149983076</v>
+        <v>0.9886279223213439</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030924233241339</v>
+        <v>1.04505524644595</v>
       </c>
       <c r="J19">
-        <v>1.030889542424505</v>
+        <v>0.9905106422177865</v>
       </c>
       <c r="K19">
-        <v>1.031409320595589</v>
+        <v>1.037859647357678</v>
       </c>
       <c r="L19">
-        <v>1.037596804689626</v>
+        <v>0.996383287199884</v>
       </c>
       <c r="M19">
-        <v>1.046359742461098</v>
+        <v>1.002580268009815</v>
       </c>
       <c r="N19">
-        <v>1.032353523819431</v>
+        <v>0.9919172809428944</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024313907082279</v>
+        <v>0.9598244589414456</v>
       </c>
       <c r="D20">
-        <v>1.027943686339297</v>
+        <v>1.023839911065895</v>
       </c>
       <c r="E20">
-        <v>1.033904720324707</v>
+        <v>0.980431908313371</v>
       </c>
       <c r="F20">
-        <v>1.04266763894386</v>
+        <v>0.9865845099852163</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030907374857855</v>
+        <v>1.044833353432631</v>
       </c>
       <c r="J20">
-        <v>1.030589744908832</v>
+        <v>0.9889970208310797</v>
       </c>
       <c r="K20">
-        <v>1.031345614682738</v>
+        <v>1.037476128861334</v>
       </c>
       <c r="L20">
-        <v>1.037285597010637</v>
+        <v>0.9948277929983077</v>
       </c>
       <c r="M20">
-        <v>1.046018050032535</v>
+        <v>1.000867429012818</v>
       </c>
       <c r="N20">
-        <v>1.032053300556898</v>
+        <v>0.9904015100402036</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022933286523324</v>
+        <v>0.9523219032573745</v>
       </c>
       <c r="D21">
-        <v>1.027525246200477</v>
+        <v>1.021616172337129</v>
       </c>
       <c r="E21">
-        <v>1.032680917487039</v>
+        <v>0.9741641617610444</v>
       </c>
       <c r="F21">
-        <v>1.041346203140201</v>
+        <v>0.9797939620558896</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03085044590172</v>
+        <v>1.044082695431799</v>
       </c>
       <c r="J21">
-        <v>1.029614577041358</v>
+        <v>0.9839577205204882</v>
       </c>
       <c r="K21">
-        <v>1.031137212172323</v>
+        <v>1.036199274525931</v>
       </c>
       <c r="L21">
-        <v>1.036273451871767</v>
+        <v>0.9896521096081317</v>
       </c>
       <c r="M21">
-        <v>1.044906557788065</v>
+        <v>0.9951685293785503</v>
       </c>
       <c r="N21">
-        <v>1.0310767478392</v>
+        <v>0.9853550533451553</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022065316446286</v>
+        <v>0.9474598449327589</v>
       </c>
       <c r="D22">
-        <v>1.027261991570284</v>
+        <v>1.020191107058159</v>
       </c>
       <c r="E22">
-        <v>1.031911791277803</v>
+        <v>0.9701135363171959</v>
       </c>
       <c r="F22">
-        <v>1.040515488535969</v>
+        <v>0.9754043657099485</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030813030192729</v>
+        <v>1.043587771638827</v>
       </c>
       <c r="J22">
-        <v>1.029001062395929</v>
+        <v>0.9806927418220021</v>
       </c>
       <c r="K22">
-        <v>1.031005200045155</v>
+        <v>1.035372912475494</v>
       </c>
       <c r="L22">
-        <v>1.035636779652114</v>
+        <v>0.9863012453794523</v>
       </c>
       <c r="M22">
-        <v>1.04420724005106</v>
+        <v>0.9914793368823347</v>
       </c>
       <c r="N22">
-        <v>1.030462361932603</v>
+        <v>0.982085438002419</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02252543695867</v>
+        <v>0.9500516881633437</v>
       </c>
       <c r="D23">
-        <v>1.027401562781779</v>
+        <v>1.020949159928269</v>
       </c>
       <c r="E23">
-        <v>1.032319489035313</v>
+        <v>0.9722717205043204</v>
       </c>
       <c r="F23">
-        <v>1.040955854679544</v>
+        <v>0.9777432521529038</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030833018519857</v>
+        <v>1.043852351614525</v>
       </c>
       <c r="J23">
-        <v>1.029326335328669</v>
+        <v>0.982433119362766</v>
       </c>
       <c r="K23">
-        <v>1.031075274765231</v>
+        <v>1.035813252919894</v>
       </c>
       <c r="L23">
-        <v>1.03597432012485</v>
+        <v>0.9880871613924287</v>
       </c>
       <c r="M23">
-        <v>1.044578007317738</v>
+        <v>0.9934455224670291</v>
       </c>
       <c r="N23">
-        <v>1.030788096790216</v>
+        <v>0.9838282870789151</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024337054922801</v>
+        <v>0.9599479204224725</v>
       </c>
       <c r="D24">
-        <v>1.027950698604475</v>
+        <v>1.023876746445056</v>
       </c>
       <c r="E24">
-        <v>1.033925243182189</v>
+        <v>0.9805352240911244</v>
       </c>
       <c r="F24">
-        <v>1.042689795195606</v>
+        <v>0.9866964239567505</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030908301731581</v>
+        <v>1.044845556812159</v>
       </c>
       <c r="J24">
-        <v>1.030606087250922</v>
+        <v>0.9890799531869965</v>
       </c>
       <c r="K24">
-        <v>1.031349091853373</v>
+        <v>1.03749714433978</v>
       </c>
       <c r="L24">
-        <v>1.037302560820606</v>
+        <v>0.9949130087085695</v>
       </c>
       <c r="M24">
-        <v>1.046036676315802</v>
+        <v>1.000961263830842</v>
       </c>
       <c r="N24">
-        <v>1.032069666106989</v>
+        <v>0.9904845601695782</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026439770752477</v>
+        <v>0.9708599368022435</v>
       </c>
       <c r="D25">
-        <v>1.028587156053423</v>
+        <v>1.027161364094088</v>
       </c>
       <c r="E25">
-        <v>1.035790097948365</v>
+        <v>0.9896887487516419</v>
       </c>
       <c r="F25">
-        <v>1.044702520712501</v>
+        <v>0.9966087657223814</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030988578257579</v>
+        <v>1.045901467557817</v>
       </c>
       <c r="J25">
-        <v>1.032089523338502</v>
+        <v>0.9964094133247211</v>
       </c>
       <c r="K25">
-        <v>1.031662527136736</v>
+        <v>1.039352174827982</v>
       </c>
       <c r="L25">
-        <v>1.038842658351631</v>
+        <v>1.002449270755232</v>
       </c>
       <c r="M25">
-        <v>1.047727332251492</v>
+        <v>1.009259955341091</v>
       </c>
       <c r="N25">
-        <v>1.033555208843966</v>
+        <v>0.9978244289813992</v>
       </c>
     </row>
   </sheetData>
